--- a/pred_ohlcv/54_21/2019-10-29 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 RDN ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-86799.61431967531</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-103601.3712587245</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-103834.1111587245</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-121514.3056587245</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-123848.4783587245</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-113355.5253587245</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-95643.36915872454</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-95656.47325872454</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-96256.47325872454</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-101104.2867587245</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-75027.42195872455</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4282.209736036334</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4886.185036036334</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4382.898336036335</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6004.872663963666</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5002.872663963666</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2642.259036036334</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4357.776863963666</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-51957.31016396367</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-39691.91446396367</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-42014.14656396367</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-74074.43966396367</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-69547.67326396366</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-232828.1878142226</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-241091.5787142226</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-227627.2768142226</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-248219.1943142226</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-249702.8241142226</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-247827.5878142226</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-250168.6652142226</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-252561.2466142226</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-252361.2466142226</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-214165.356732212</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-228151.453732212</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-224129.453832212</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-218061.687732212</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-217374.719032212</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-217982.4190322121</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 RDN ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-103601.3712587245</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-103834.1111587245</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101742.3942587245</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-121514.3056587245</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-123848.4783587245</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-113355.5253587245</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-95643.36915872454</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-95656.47325872454</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-96256.47325872454</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-101104.2867587245</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-75027.42195872455</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-70003.42195872455</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-77443.99395872455</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-78241.76915872455</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>47802.30466664858</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>36273.35226664857</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>36273.35226664857</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>43293.87756664857</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6157.412566648578</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>30668.82216664858</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-15935.15243335142</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-20484.18183335142</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-15519.24463335142</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-12945.65616396367</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-13000.07276396367</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-15000.07276396367</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-157.2088639636659</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4282.209736036334</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4886.185036036334</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4382.898336036335</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6004.872663963666</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5002.872663963666</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2642.259036036334</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4357.776863963666</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-51957.31016396367</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-39691.91446396367</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-42014.14656396367</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-74074.43966396367</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-216325.8364142226</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-232828.1878142226</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-229228.1878142226</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-241091.5787142226</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-232163.4454142226</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-227627.2768142226</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-228228.7446142226</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-251296.3640142226</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-250457.3641142226</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-248219.1943142226</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-249702.8241142226</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-242921.7317142226</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-247827.5878142226</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-250168.6652142226</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-249614.4986142226</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-249478.2782142226</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-252561.2466142226</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-252361.2466142226</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-246401.2783142226</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-252978.2013142226</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-251511.2013142226</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-254989.2013142226</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-250623.2013142226</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-240041.190732212</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-241240.757032212</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-241295.486132212</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-214165.356732212</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-197843.301932212</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-201633.743532212</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-200787.819132212</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-204004.234732212</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-204069.234732212</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-228151.453732212</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-224129.453832212</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-218227.687732212</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-218061.687732212</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-217374.719032212</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-217982.4190322121</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
